--- a/Data/Input/Program och koder.xlsx
+++ b/Data/Input/Program och koder.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sdfs001\users$\sgpetor\Mina Dokument\Skrivbord\Adm\Central byråkrati\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\Carl\rpa-lararkostnadpergymnasieprogram\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="93">
   <si>
     <t>Vht kod</t>
   </si>
@@ -308,6 +308,12 @@
   </si>
   <si>
     <t>ES</t>
+  </si>
+  <si>
+    <t>HRH</t>
+  </si>
+  <si>
+    <t>VO</t>
   </si>
 </sst>
 </file>
@@ -702,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD59"/>
+  <dimension ref="A1:XFD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17730,6 +17736,20 @@
         <v>73</v>
       </c>
     </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46">
+        <v>450295</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>36</v>
@@ -17931,18 +17951,32 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B59">
-        <v>453100</v>
+        <v>453090</v>
       </c>
       <c r="C59" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="D59" t="s">
         <v>73</v>
       </c>
-      <c r="E59" s="2" t="s">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60">
+        <v>453100</v>
+      </c>
+      <c r="C60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>80</v>
       </c>
     </row>
